--- a/Libro1.xlsx
+++ b/Libro1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADM\OneDrive\Documentos\GitHub\Graph\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EEF4E46-969D-4668-B55B-EA9C945553DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FE5A068-9552-42FF-9D46-2A4FFB7AD159}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{35595483-75E6-41BB-AE1C-D452E21777AC}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="69">
   <si>
     <t>Fecha</t>
   </si>
@@ -80,16 +80,10 @@
     <t>La situación en Oriente Medio</t>
   </si>
   <si>
-    <t>Federación de Rusia.</t>
-  </si>
-  <si>
     <t>La situación relativa a la República Democrática del Congo</t>
   </si>
   <si>
     <t>La situación relativa al Sáhara Occidental</t>
-  </si>
-  <si>
-    <t>Federación de Rusia, Sudáfrica.</t>
   </si>
   <si>
     <t>La cuestión relativa a Haití</t>
@@ -622,8 +616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4197D0A-808E-49CC-B059-36F2EAC378AD}">
   <dimension ref="C3:J50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="68" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="68" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -640,7 +634,7 @@
   <sheetData>
     <row r="3" spans="3:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C3" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>0</v>
@@ -670,16 +664,16 @@
         <v>44552</v>
       </c>
       <c r="E4" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>55</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="G4" s="4">
-        <v>0</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>57</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>12</v>
@@ -694,7 +688,7 @@
         <v>44515</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>5</v>
@@ -742,16 +736,16 @@
         <v>44498</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G7" s="4">
         <v>0</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>12</v>
@@ -817,13 +811,13 @@
         <v>13</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G10" s="4">
         <v>0</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I10" s="4" t="s">
         <v>12</v>
@@ -841,13 +835,13 @@
         <v>14</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G11" s="4">
         <v>0</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I11" s="4" t="s">
         <v>12</v>
@@ -862,16 +856,16 @@
         <v>44183</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G12" s="4">
         <v>0</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I12" s="4" t="s">
         <v>12</v>
@@ -886,16 +880,16 @@
         <v>44134</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G13" s="4">
         <v>0</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="I13" s="4" t="s">
         <v>12</v>
@@ -910,10 +904,10 @@
         <v>44119</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G14" s="4">
         <v>0</v>
@@ -934,10 +928,10 @@
         <v>44089</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G15" s="4">
         <v>0</v>
@@ -961,13 +955,13 @@
         <v>14</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G16" s="4">
         <v>0</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I16" s="4" t="s">
         <v>12</v>
@@ -982,16 +976,16 @@
         <v>44007</v>
       </c>
       <c r="E17" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G17" s="4">
+        <v>0</v>
+      </c>
+      <c r="H17" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="G17" s="4">
-        <v>0</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>15</v>
       </c>
       <c r="I17" s="4" t="s">
         <v>12</v>
@@ -1009,13 +1003,13 @@
         <v>13</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G18" s="4">
         <v>0</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I18" s="4" t="s">
         <v>12</v>
@@ -1033,7 +1027,7 @@
         <v>14</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G19" s="4">
         <v>0</v>
@@ -1054,16 +1048,16 @@
         <v>43873</v>
       </c>
       <c r="E20" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F20" s="4" t="s">
-        <v>23</v>
-      </c>
       <c r="G20" s="4">
         <v>0</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I20" s="4" t="s">
         <v>12</v>
@@ -1078,16 +1072,16 @@
         <v>43872</v>
       </c>
       <c r="E21" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F21" s="4" t="s">
-        <v>23</v>
-      </c>
       <c r="G21" s="4">
         <v>0</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I21" s="4" t="s">
         <v>12</v>
@@ -1105,7 +1099,7 @@
         <v>9</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G22" s="4">
         <v>0</v>
@@ -1129,16 +1123,16 @@
         <v>14</v>
       </c>
       <c r="F23" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H23" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G23" s="4" t="s">
+      <c r="I23" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I23" s="4" t="s">
-        <v>28</v>
       </c>
       <c r="J23" s="2"/>
     </row>
@@ -1150,16 +1144,16 @@
         <v>43768</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G24" s="4">
         <v>0</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I24" s="4" t="s">
         <v>12</v>
@@ -1174,16 +1168,16 @@
         <v>43641</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G25" s="4">
         <v>0</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I25" s="4" t="s">
         <v>12</v>
@@ -1201,13 +1195,13 @@
         <v>13</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G26" s="4">
         <v>0</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I26" s="4" t="s">
         <v>12</v>
@@ -1222,16 +1216,16 @@
         <v>43585</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G27" s="4">
         <v>0</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I27" s="4" t="s">
         <v>12</v>
@@ -1246,10 +1240,10 @@
         <v>43578</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G28" s="4">
         <v>0</v>
@@ -1270,16 +1264,16 @@
         <v>43567</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G29" s="4">
         <v>0</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I29" s="4" t="s">
         <v>12</v>
@@ -1297,13 +1291,13 @@
         <v>13</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G30" s="4">
         <v>0</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I30" s="4" t="s">
         <v>12</v>
@@ -1321,7 +1315,7 @@
         <v>9</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G31" s="4">
         <v>0</v>
@@ -1342,10 +1336,10 @@
         <v>43447</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G32" s="4">
         <v>0</v>
@@ -1366,16 +1360,16 @@
         <v>43409</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G33" s="4">
         <v>0</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I33" s="4" t="s">
         <v>12</v>
@@ -1390,16 +1384,16 @@
         <v>43404</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G34" s="4">
         <v>0</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I34" s="4" t="s">
         <v>12</v>
@@ -1417,13 +1411,13 @@
         <v>13</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G35" s="4">
         <v>0</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I35" s="4" t="s">
         <v>12</v>
@@ -1438,16 +1432,16 @@
         <v>43278</v>
       </c>
       <c r="E36" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G36" s="4">
+        <v>0</v>
+      </c>
+      <c r="H36" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="G36" s="4">
-        <v>0</v>
-      </c>
-      <c r="H36" s="4" t="s">
-        <v>24</v>
       </c>
       <c r="I36" s="4" t="s">
         <v>12</v>
@@ -1465,13 +1459,13 @@
         <v>13</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G37" s="4">
         <v>0</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I37" s="4" t="s">
         <v>12</v>
@@ -1486,16 +1480,16 @@
         <v>43217</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G38" s="4">
         <v>0</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I38" s="4" t="s">
         <v>12</v>
@@ -1510,10 +1504,10 @@
         <v>43200</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G39" s="4">
         <v>0</v>
@@ -1534,16 +1528,16 @@
         <v>43088</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G40" s="4">
         <v>0</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I40" s="4" t="s">
         <v>12</v>
@@ -1558,16 +1552,16 @@
         <v>43053</v>
       </c>
       <c r="E41" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G41" s="4">
+        <v>0</v>
+      </c>
+      <c r="H41" s="4" t="s">
         <v>52</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="G41" s="4">
-        <v>0</v>
-      </c>
-      <c r="H41" s="4" t="s">
-        <v>54</v>
       </c>
       <c r="I41" s="4" t="s">
         <v>12</v>
